--- a/datos resolucion.xlsx
+++ b/datos resolucion.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,9 +13,35 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>#buses</t>
+  </si>
+  <si>
+    <t>#rondas</t>
+  </si>
+  <si>
+    <t>#puntos</t>
+  </si>
+  <si>
+    <t>#refugios</t>
+  </si>
+  <si>
+    <t>tamanyo EB</t>
+  </si>
+  <si>
+    <t>tiempo</t>
+  </si>
+  <si>
+    <t>instancia</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +78,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +132,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +167,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +375,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/datos resolucion.xlsx
+++ b/datos resolucion.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>#buses</t>
   </si>
@@ -31,10 +31,16 @@
     <t>tamanyo EB</t>
   </si>
   <si>
-    <t>tiempo</t>
-  </si>
-  <si>
     <t>instancia</t>
+  </si>
+  <si>
+    <t>tiempo [s]</t>
+  </si>
+  <si>
+    <t>#variables</t>
+  </si>
+  <si>
+    <t>tamanyo dom</t>
   </si>
 </sst>
 </file>
@@ -376,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G2"/>
+  <dimension ref="A2:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,11 +395,14 @@
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -408,10 +417,301 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f>B3*C3</f>
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <f>D3*E3+1</f>
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <f>POWER(F3,G3)</f>
+        <v>64</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F9" si="0">B4*C4</f>
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G11" si="1">D4*E4+1</f>
         <v>5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H11" si="2">POWER(F4,G4)</f>
+        <v>1024</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>7776</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="I6">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>279936</v>
+      </c>
+      <c r="I7">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>2097152</v>
+      </c>
+      <c r="I8">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>4782969</v>
+      </c>
+      <c r="I9">
+        <v>2.328125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <f>B10*C10</f>
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>10077696</v>
+      </c>
+      <c r="I10">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <f>B11*C11</f>
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>35831808</v>
       </c>
     </row>
   </sheetData>

--- a/datos resolucion.xlsx
+++ b/datos resolucion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>#buses</t>
   </si>
@@ -42,11 +42,17 @@
   <si>
     <t>tamanyo dom</t>
   </si>
+  <si>
+    <t>mucho</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -76,8 +82,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -93,6 +101,2982 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL"/>
+              <a:t>tiempo de ejecución en función de cantidad de variables</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL"/>
+              <a:t>(no outliers) </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$G$3:$G$10,Sheet1!$G$12:$G$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$J$3:$J$10,Sheet1!$J$12:$J$15)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.328125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="418351424"/>
+        <c:axId val="418346528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="418351424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418346528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="418346528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418351424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:tint val="50000"/>
+            <a:satMod val="300000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="35000">
+          <a:schemeClr val="dk1">
+            <a:tint val="37000"/>
+            <a:satMod val="300000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:tint val="15000"/>
+            <a:satMod val="350000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="16200000" scaled="1"/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:shade val="95000"/>
+          <a:satMod val="105000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+        <a:srgbClr val="000000">
+          <a:alpha val="38000"/>
+        </a:srgbClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL"/>
+              <a:t>tiempo de ejecución en función de tamaño del dominio</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL"/>
+              <a:t>(no outliers)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$H$3:$H$10,Sheet1!$H$12:$H$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$J$3:$J$10,Sheet1!$J$12:$J$15)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.328125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="418347072"/>
+        <c:axId val="418359040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="418347072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418359040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="418359040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418347072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:tint val="50000"/>
+            <a:satMod val="300000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="35000">
+          <a:schemeClr val="dk1">
+            <a:tint val="37000"/>
+            <a:satMod val="300000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:tint val="15000"/>
+            <a:satMod val="350000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="16200000" scaled="1"/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:shade val="95000"/>
+          <a:satMod val="105000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+        <a:srgbClr val="000000">
+          <a:alpha val="38000"/>
+        </a:srgbClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL"/>
+              <a:t>tiempo de ejecucion en funcion de tamaño de espacio de búsqueda</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL"/>
+              <a:t>(no outliers, log-lineal)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$I$3:$I$10,Sheet1!$I$12:$I$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>279936</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4782969</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10077696</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17179869184</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3486784401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$J$3:$J$10,Sheet1!$J$12:$J$15)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.328125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="410771888"/>
+        <c:axId val="410763184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="410771888"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410763184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="410763184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410771888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:tint val="50000"/>
+            <a:satMod val="300000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="35000">
+          <a:schemeClr val="dk1">
+            <a:tint val="37000"/>
+            <a:satMod val="300000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:tint val="15000"/>
+            <a:satMod val="350000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="16200000" scaled="1"/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:shade val="95000"/>
+          <a:satMod val="105000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+        <a:srgbClr val="000000">
+          <a:alpha val="38000"/>
+        </a:srgbClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>771524</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,10 +3366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I11"/>
+  <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,76 +3379,73 @@
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3">
-        <f>B3*C3</f>
+      <c r="G3">
+        <f>C3*D3</f>
         <v>4</v>
       </c>
-      <c r="G3">
-        <f>D3*E3+1</f>
+      <c r="H3">
+        <f>E3*F3+1</f>
         <v>3</v>
       </c>
-      <c r="H3">
-        <f>POWER(F3,G3)</f>
+      <c r="I3">
+        <f>POWER(G3,H3)</f>
         <v>64</v>
       </c>
-      <c r="I3">
+      <c r="J3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
@@ -478,30 +3459,30 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F9" si="0">B4*C4</f>
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G9" si="0">C4*D4</f>
         <v>4</v>
       </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G11" si="1">D4*E4+1</f>
+      <c r="H4">
+        <f>E4*F4+1</f>
         <v>5</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H11" si="2">POWER(F4,G4)</f>
+      <c r="I4">
+        <f>POWER(G4,H4)</f>
         <v>1024</v>
       </c>
-      <c r="I4">
+      <c r="J4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -510,30 +3491,30 @@
         <v>2</v>
       </c>
       <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
+      <c r="H5">
+        <f>E5*F5+1</f>
         <v>5</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
+      <c r="I5">
+        <f>POWER(G5,H5)</f>
         <v>7776</v>
       </c>
-      <c r="I5">
+      <c r="J5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>5</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -542,91 +3523,91 @@
         <v>2</v>
       </c>
       <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
+      <c r="H6">
+        <f>E6*F6+1</f>
         <v>5</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
+      <c r="I6">
+        <f>POWER(G6,H6)</f>
         <v>100000</v>
       </c>
-      <c r="I6">
+      <c r="J6" s="1">
         <v>0.375</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
+      <c r="H7">
+        <f>E7*F7+1</f>
         <v>7</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
+      <c r="I7">
+        <f>POWER(G7,H7)</f>
         <v>279936</v>
       </c>
-      <c r="I7">
+      <c r="J7" s="1">
         <v>1.5625E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
+      <c r="H8">
+        <f>E8*F8+1</f>
         <v>7</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
+      <c r="I8">
+        <f>POWER(G8,H8)</f>
         <v>2097152</v>
       </c>
-      <c r="I8">
+      <c r="J8" s="1">
         <v>0.6875</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>7</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -635,86 +3616,290 @@
         <v>3</v>
       </c>
       <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
+      <c r="H9">
+        <f>E9*F9+1</f>
         <v>7</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
+      <c r="I9">
+        <f>POWER(G9,H9)</f>
         <v>4782969</v>
       </c>
-      <c r="I9">
+      <c r="J9" s="1">
         <v>2.328125</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>2</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>4</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2</v>
       </c>
-      <c r="F10">
-        <f>B10*C10</f>
+      <c r="G10">
+        <f>C10*D10</f>
         <v>6</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
+      <c r="H10">
+        <f>E10*F10+1</f>
         <v>9</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
+      <c r="I10">
+        <f>POWER(G10,H10)</f>
         <v>10077696</v>
       </c>
-      <c r="I10">
+      <c r="J10" s="1">
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>2</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>3</v>
       </c>
-      <c r="F11">
-        <f>B11*C11</f>
+      <c r="G11">
+        <f>C11*D11</f>
         <v>12</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
+      <c r="H11">
+        <f>E11*F11+1</f>
         <v>7</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
+      <c r="I11">
+        <f>POWER(G11,H11)</f>
         <v>35831808</v>
       </c>
+      <c r="J11" s="1">
+        <f>5*60+14.328125</f>
+        <v>314.328125</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <f>C12*D12</f>
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <f>E12*F12+1</f>
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <f>POWER(G12,H12)</f>
+        <v>4194304</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <f>C13*D13</f>
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <f>E13*F13+1</f>
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <f>POWER(G13,H13)</f>
+        <v>67108864</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <f>C14*D14</f>
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <f>E14*F14+1</f>
+        <v>17</v>
+      </c>
+      <c r="I14">
+        <f>POWER(G14,H14)</f>
+        <v>17179869184</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <f>C15*D15</f>
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <f>E15*F15+1</f>
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <f>POWER(G15,H15)</f>
+        <v>3486784401</v>
+      </c>
+      <c r="J15" s="1">
+        <v>19.375</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <f>C16*D16</f>
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <f>E16*F16+1</f>
+        <v>9</v>
+      </c>
+      <c r="I16" s="2">
+        <f>POWER(G16,H16)</f>
+        <v>5159780352</v>
+      </c>
+      <c r="J16" s="1">
+        <f>5*3600+20*60</f>
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <f>C17*D17</f>
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <f>E17*F17+1</f>
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <f>POWER(G17,H17)</f>
+        <v>1048576</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>